--- a/1st_round_screening/ACE/iteration_3/data/transfer_3.xlsx
+++ b/1st_round_screening/ACE/iteration_3/data/transfer_3.xlsx
@@ -550,13 +550,13 @@
         <v>48</v>
       </c>
       <c r="B2" t="n">
-        <v>325.5</v>
+        <v>201.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>148.4</v>
       </c>
       <c r="D2" t="n">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -598,7 +598,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -606,10 +606,10 @@
         <v>49</v>
       </c>
       <c r="B3" t="n">
-        <v>350</v>
+        <v>201.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>148.4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -662,10 +662,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>350</v>
+        <v>201.6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>148.4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>52</v>
       </c>
       <c r="B6" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -830,10 +830,10 @@
         <v>53</v>
       </c>
       <c r="B7" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -886,10 +886,10 @@
         <v>54</v>
       </c>
       <c r="B8" t="n">
-        <v>285.25</v>
+        <v>202.65</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>64.75</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="B9" t="n">
-        <v>160.65</v>
+        <v>202.65</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>189.35</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -998,10 +998,10 @@
         <v>56</v>
       </c>
       <c r="B10" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1054,10 +1054,10 @@
         <v>57</v>
       </c>
       <c r="B11" t="n">
-        <v>225.75</v>
+        <v>202.65</v>
       </c>
       <c r="C11" t="n">
-        <v>124.25</v>
+        <v>147.35</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>58</v>
       </c>
       <c r="B12" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1166,10 +1166,10 @@
         <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>26.95</v>
+        <v>202.65</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1193,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>323.05</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1222,10 +1222,10 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>350</v>
+        <v>255.5</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1278,10 +1278,10 @@
         <v>61</v>
       </c>
       <c r="B15" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1334,10 +1334,10 @@
         <v>62</v>
       </c>
       <c r="B16" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         <v>63</v>
       </c>
       <c r="B17" t="n">
-        <v>350</v>
+        <v>221.9</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>128.1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
